--- a/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
+++ b/00_doc/01_设计思路/01_权限设计/权限的理解.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00Project\00_src\java\perfect_v5\00_doc\01_设计思路\01_权限设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00Project\00_src\java\perfect_v6\00_doc\01_设计思路\01_权限设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="313">
   <si>
     <t>operation</t>
   </si>
@@ -1203,15 +1203,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_id</t>
+  </si>
+  <si>
     <t>m_permission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation_id</t>
+    <t>用户关联权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_user_permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_user_default_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户默认菜单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5940,7 +5956,7 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5980,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>84</v>
@@ -6009,7 +6025,7 @@
       </c>
       <c r="G4" s="8"/>
       <c r="I4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -6047,15 +6063,19 @@
       </c>
       <c r="G6" s="8"/>
       <c r="I6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -6064,8 +6084,12 @@
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
